--- a/Config/misc.xlsx
+++ b/Config/misc.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>k1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>just4test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,15 +106,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1：2|3：1|4：11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jiaoshou|testkey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1：2|2：3;4:2|5:10;11:2</t>
+    <t>1:2|3:1|4:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:2|2:3;4:2|5:10;11:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,24 +461,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,11 +548,8 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -630,37 +619,31 @@
       <c r="W2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
